--- a/PES/SRB Invoices/1082  SST Invoice for UEP (balanced retention amount).xlsx
+++ b/PES/SRB Invoices/1082  SST Invoice for UEP (balanced retention amount).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\SRB Invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5812FC-C0A6-4E2C-A9A9-37B714408B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBD3C40-E223-495B-853E-76E8B863AE72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,16 +91,17 @@
     <t>Invoice # 1082</t>
   </si>
   <si>
-    <t>Dated: 21-01-2025</t>
+    <t>Dated: 29-01-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -488,7 +489,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,10 +510,220 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>572634</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>158004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>749696</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19949</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF819FDD-E847-43A5-93F2-2CDADDF8B9B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1119815" y="360664"/>
+          <a:ext cx="4787567" cy="672583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>IONEER </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>ERVICES</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Book Antiqua"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>233058</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>172261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>591685</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>135153</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB5467D-7391-4EB7-A6FD-D77761A2BCD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="233058" y="172261"/>
+          <a:ext cx="905808" cy="773530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>137472</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>851847</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>134344</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{063924F7-F53B-4E35-A56A-A08CCC3B06DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295158" y="9967301"/>
+          <a:ext cx="714375" cy="563479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -550,9 +761,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,9 +796,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -620,9 +848,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -798,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="94" zoomScaleNormal="100" zoomScaleSheetLayoutView="94" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="94" zoomScaleNormal="100" zoomScaleSheetLayoutView="94" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1078,18 +1323,18 @@
       <c r="C28" s="60"/>
       <c r="D28" s="61"/>
       <c r="E28" s="62">
-        <v>1383462</v>
+        <v>1383461</v>
       </c>
       <c r="F28" s="63">
         <v>0.15</v>
       </c>
       <c r="G28" s="64">
-        <f>E28*13%</f>
-        <v>179850.06</v>
+        <f>E28*15%</f>
+        <v>207519.15</v>
       </c>
       <c r="H28" s="51">
         <f>E28+G28</f>
-        <v>1563312.06</v>
+        <v>1590980.15</v>
       </c>
       <c r="I28" s="8"/>
       <c r="K28" s="8"/>
@@ -1196,16 +1441,16 @@
       <c r="D36" s="59"/>
       <c r="E36" s="16">
         <f>SUM(E28:E34)</f>
-        <v>1383462</v>
+        <v>1383461</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="18">
         <f>SUM(G28:G34)</f>
-        <v>179850.06</v>
+        <v>207519.15</v>
       </c>
       <c r="H36" s="19">
         <f>SUM(H28:H34)</f>
-        <v>1563312.06</v>
+        <v>1590980.15</v>
       </c>
       <c r="K36" s="38"/>
       <c r="L36" s="38"/>
@@ -1320,5 +1565,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0" bottom="0.25" header="0.2" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>